--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/96/FD_Curve.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/96/FD_Curve.xlsx
@@ -477,10 +477,10 @@
         <v>0.0620038</v>
       </c>
       <c r="B4" t="n">
-        <v>2.24184</v>
+        <v>2.24424</v>
       </c>
       <c r="C4" t="n">
-        <v>2241.84</v>
+        <v>2244.24</v>
       </c>
     </row>
     <row r="5">
@@ -488,1077 +488,1077 @@
         <v>0.0929936</v>
       </c>
       <c r="B5" t="n">
-        <v>2.43693</v>
+        <v>3.42934</v>
       </c>
       <c r="C5" t="n">
-        <v>2436.93</v>
+        <v>3429.34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.12397</v>
+        <v>0.124006</v>
       </c>
       <c r="B6" t="n">
-        <v>2.49389</v>
+        <v>4.38297</v>
       </c>
       <c r="C6" t="n">
-        <v>2493.89</v>
+        <v>4382.97</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.154946</v>
+        <v>0.155041</v>
       </c>
       <c r="B7" t="n">
-        <v>2.53026</v>
+        <v>4.802600000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>2530.26</v>
+        <v>4802.6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.185922</v>
+        <v>0.186012</v>
       </c>
       <c r="B8" t="n">
-        <v>2.56223</v>
+        <v>5.10463</v>
       </c>
       <c r="C8" t="n">
-        <v>2562.23</v>
+        <v>5104.63</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.216899</v>
+        <v>0.216989</v>
       </c>
       <c r="B9" t="n">
-        <v>2.58577</v>
+        <v>5.28751</v>
       </c>
       <c r="C9" t="n">
-        <v>2585.77</v>
+        <v>5287.51</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.247875</v>
+        <v>0.247965</v>
       </c>
       <c r="B10" t="n">
-        <v>2.60449</v>
+        <v>5.39665</v>
       </c>
       <c r="C10" t="n">
-        <v>2604.49</v>
+        <v>5396.65</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.278804</v>
+        <v>0.278893</v>
       </c>
       <c r="B11" t="n">
-        <v>2.61853</v>
+        <v>5.453279999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>2618.53</v>
+        <v>5453.28</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.309729</v>
+        <v>0.309818</v>
       </c>
       <c r="B12" t="n">
-        <v>2.6314</v>
+        <v>5.47437</v>
       </c>
       <c r="C12" t="n">
-        <v>2631.4</v>
+        <v>5474.37</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.340654</v>
+        <v>0.340743</v>
       </c>
       <c r="B13" t="n">
-        <v>2.6431</v>
+        <v>5.46931</v>
       </c>
       <c r="C13" t="n">
-        <v>2643.1</v>
+        <v>5469.31</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.371579</v>
+        <v>0.371668</v>
       </c>
       <c r="B14" t="n">
-        <v>2.65391</v>
+        <v>5.45614</v>
       </c>
       <c r="C14" t="n">
-        <v>2653.91</v>
+        <v>5456.14</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.402504</v>
+        <v>0.402593</v>
       </c>
       <c r="B15" t="n">
-        <v>2.66433</v>
+        <v>5.43971</v>
       </c>
       <c r="C15" t="n">
-        <v>2664.33</v>
+        <v>5439.71</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.433429</v>
+        <v>0.433518</v>
       </c>
       <c r="B16" t="n">
-        <v>2.67363</v>
+        <v>5.421489999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>2673.63</v>
+        <v>5421.49</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.464349</v>
+        <v>0.464443</v>
       </c>
       <c r="B17" t="n">
-        <v>2.6824</v>
+        <v>5.40184</v>
       </c>
       <c r="C17" t="n">
-        <v>2682.4</v>
+        <v>5401.84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.495274</v>
+        <v>0.495368</v>
       </c>
       <c r="B18" t="n">
-        <v>2.69069</v>
+        <v>5.38116</v>
       </c>
       <c r="C18" t="n">
-        <v>2690.69</v>
+        <v>5381.16</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.526199</v>
+        <v>0.526293</v>
       </c>
       <c r="B19" t="n">
-        <v>2.69855</v>
+        <v>5.35946</v>
       </c>
       <c r="C19" t="n">
-        <v>2698.55</v>
+        <v>5359.46</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.557125</v>
+        <v>0.557218</v>
       </c>
       <c r="B20" t="n">
-        <v>2.70611</v>
+        <v>5.33722</v>
       </c>
       <c r="C20" t="n">
-        <v>2706.11</v>
+        <v>5337.22</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.58805</v>
+        <v>0.588143</v>
       </c>
       <c r="B21" t="n">
-        <v>2.71318</v>
+        <v>5.31419</v>
       </c>
       <c r="C21" t="n">
-        <v>2713.18</v>
+        <v>5314.19</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.619092</v>
+        <v>0.619185</v>
       </c>
       <c r="B22" t="n">
-        <v>2.71979</v>
+        <v>5.29035</v>
       </c>
       <c r="C22" t="n">
-        <v>2719.79</v>
+        <v>5290.35</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.650269</v>
+        <v>0.650358</v>
       </c>
       <c r="B23" t="n">
-        <v>2.72602</v>
+        <v>5.26559</v>
       </c>
       <c r="C23" t="n">
-        <v>2726.02</v>
+        <v>5265.59</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.681441</v>
+        <v>0.68153</v>
       </c>
       <c r="B24" t="n">
-        <v>2.73206</v>
+        <v>5.23961</v>
       </c>
       <c r="C24" t="n">
-        <v>2732.06</v>
+        <v>5239.61</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.712614</v>
+        <v>0.712707</v>
       </c>
       <c r="B25" t="n">
-        <v>2.73799</v>
+        <v>5.21244</v>
       </c>
       <c r="C25" t="n">
-        <v>2737.99</v>
+        <v>5212.44</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.743791</v>
+        <v>0.74388</v>
       </c>
       <c r="B26" t="n">
-        <v>2.74346</v>
+        <v>5.18407</v>
       </c>
       <c r="C26" t="n">
-        <v>2743.46</v>
+        <v>5184.07</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.774963</v>
+        <v>0.775057</v>
       </c>
       <c r="B27" t="n">
-        <v>2.74869</v>
+        <v>5.15388</v>
       </c>
       <c r="C27" t="n">
-        <v>2748.69</v>
+        <v>5153.88</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.806136</v>
+        <v>0.806229</v>
       </c>
       <c r="B28" t="n">
-        <v>2.75373</v>
+        <v>5.12174</v>
       </c>
       <c r="C28" t="n">
-        <v>2753.73</v>
+        <v>5121.74</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.837313</v>
+        <v>0.837402</v>
       </c>
       <c r="B29" t="n">
-        <v>2.7585</v>
+        <v>5.0874</v>
       </c>
       <c r="C29" t="n">
-        <v>2758.5</v>
+        <v>5087.4</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.868485</v>
+        <v>0.868579</v>
       </c>
       <c r="B30" t="n">
-        <v>2.76307</v>
+        <v>5.05076</v>
       </c>
       <c r="C30" t="n">
-        <v>2763.07</v>
+        <v>5050.76</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.899658</v>
+        <v>0.899752</v>
       </c>
       <c r="B31" t="n">
-        <v>2.7674</v>
+        <v>5.01215</v>
       </c>
       <c r="C31" t="n">
-        <v>2767.4</v>
+        <v>5012.15</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.930835</v>
+        <v>0.930924</v>
       </c>
       <c r="B32" t="n">
-        <v>2.77155</v>
+        <v>4.97119</v>
       </c>
       <c r="C32" t="n">
-        <v>2771.55</v>
+        <v>4971.19</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.962008</v>
+        <v>0.962101</v>
       </c>
       <c r="B33" t="n">
-        <v>2.77549</v>
+        <v>4.92819</v>
       </c>
       <c r="C33" t="n">
-        <v>2775.49</v>
+        <v>4928.19</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.993185</v>
+        <v>0.993274</v>
       </c>
       <c r="B34" t="n">
-        <v>2.77926</v>
+        <v>4.88266</v>
       </c>
       <c r="C34" t="n">
-        <v>2779.26</v>
+        <v>4882.66</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.02448</v>
+        <v>1.02457</v>
       </c>
       <c r="B35" t="n">
-        <v>2.78284</v>
+        <v>4.83504</v>
       </c>
       <c r="C35" t="n">
-        <v>2782.84</v>
+        <v>4835.04</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.05586</v>
+        <v>1.05594</v>
       </c>
       <c r="B36" t="n">
-        <v>2.78624</v>
+        <v>4.64192</v>
       </c>
       <c r="C36" t="n">
-        <v>2786.24</v>
+        <v>4641.92</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.08724</v>
+        <v>1.08685</v>
       </c>
       <c r="B37" t="n">
-        <v>2.78947</v>
+        <v>4.64195</v>
       </c>
       <c r="C37" t="n">
-        <v>2789.47</v>
+        <v>4641.95</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.11862</v>
+        <v>1.11795</v>
       </c>
       <c r="B38" t="n">
-        <v>2.79255</v>
+        <v>4.65041</v>
       </c>
       <c r="C38" t="n">
-        <v>2792.55</v>
+        <v>4650.41</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.15</v>
+        <v>1.14877</v>
       </c>
       <c r="B39" t="n">
-        <v>2.79546</v>
+        <v>4.64028</v>
       </c>
       <c r="C39" t="n">
-        <v>2795.46</v>
+        <v>4640.28</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.18139</v>
+        <v>1.1796</v>
       </c>
       <c r="B40" t="n">
-        <v>2.79822</v>
+        <v>4.55408</v>
       </c>
       <c r="C40" t="n">
-        <v>2798.22</v>
+        <v>4554.08</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.21276</v>
+        <v>1.21042</v>
       </c>
       <c r="B41" t="n">
-        <v>2.80083</v>
+        <v>4.470140000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>2800.83</v>
+        <v>4470.14</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.24414</v>
+        <v>1.24185</v>
       </c>
       <c r="B42" t="n">
-        <v>2.8033</v>
+        <v>4.402439999999999</v>
       </c>
       <c r="C42" t="n">
-        <v>2803.3</v>
+        <v>4402.44</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.27553</v>
+        <v>1.27332</v>
       </c>
       <c r="B43" t="n">
-        <v>2.80562</v>
+        <v>4.35961</v>
       </c>
       <c r="C43" t="n">
-        <v>2805.62</v>
+        <v>4359.61</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.30691</v>
+        <v>1.30478</v>
       </c>
       <c r="B44" t="n">
-        <v>2.80781</v>
+        <v>4.28313</v>
       </c>
       <c r="C44" t="n">
-        <v>2807.81</v>
+        <v>4283.13</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.33829</v>
+        <v>1.33625</v>
       </c>
       <c r="B45" t="n">
-        <v>2.80986</v>
+        <v>4.22752</v>
       </c>
       <c r="C45" t="n">
-        <v>2809.86</v>
+        <v>4227.52</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.36967</v>
+        <v>1.36772</v>
       </c>
       <c r="B46" t="n">
-        <v>2.81177</v>
+        <v>4.17042</v>
       </c>
       <c r="C46" t="n">
-        <v>2811.77</v>
+        <v>4170.42</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.40105</v>
+        <v>1.39918</v>
       </c>
       <c r="B47" t="n">
-        <v>2.81355</v>
+        <v>4.094320000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>2813.55</v>
+        <v>4094.32</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.43243</v>
+        <v>1.43065</v>
       </c>
       <c r="B48" t="n">
-        <v>2.81521</v>
+        <v>4.05186</v>
       </c>
       <c r="C48" t="n">
-        <v>2815.21</v>
+        <v>4051.86</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.46381</v>
+        <v>1.46212</v>
       </c>
       <c r="B49" t="n">
-        <v>2.81674</v>
+        <v>3.9712</v>
       </c>
       <c r="C49" t="n">
-        <v>2816.74</v>
+        <v>3971.2</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.49519</v>
+        <v>1.49343</v>
       </c>
       <c r="B50" t="n">
-        <v>2.81813</v>
+        <v>3.91954</v>
       </c>
       <c r="C50" t="n">
-        <v>2818.13</v>
+        <v>3919.54</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.52657</v>
+        <v>1.52418</v>
       </c>
       <c r="B51" t="n">
-        <v>2.81941</v>
+        <v>3.82879</v>
       </c>
       <c r="C51" t="n">
-        <v>2819.41</v>
+        <v>3828.79</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.55795</v>
+        <v>1.55544</v>
       </c>
       <c r="B52" t="n">
-        <v>2.82055</v>
+        <v>3.77648</v>
       </c>
       <c r="C52" t="n">
-        <v>2820.55</v>
+        <v>3776.48</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.58933</v>
+        <v>1.58616</v>
       </c>
       <c r="B53" t="n">
-        <v>2.82158</v>
+        <v>3.69634</v>
       </c>
       <c r="C53" t="n">
-        <v>2821.58</v>
+        <v>3696.34</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.62071</v>
+        <v>1.61747</v>
       </c>
       <c r="B54" t="n">
-        <v>2.82247</v>
+        <v>3.64032</v>
       </c>
       <c r="C54" t="n">
-        <v>2822.47</v>
+        <v>3640.32</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.65174</v>
+        <v>1.6481</v>
       </c>
       <c r="B55" t="n">
-        <v>2.82324</v>
+        <v>3.56685</v>
       </c>
       <c r="C55" t="n">
-        <v>2823.24</v>
+        <v>3566.85</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.68271</v>
+        <v>1.67947</v>
       </c>
       <c r="B56" t="n">
-        <v>2.82387</v>
+        <v>3.51557</v>
       </c>
       <c r="C56" t="n">
-        <v>2823.87</v>
+        <v>3515.57</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.71367</v>
+        <v>1.71018</v>
       </c>
       <c r="B57" t="n">
-        <v>2.82438</v>
+        <v>3.44597</v>
       </c>
       <c r="C57" t="n">
-        <v>2824.38</v>
+        <v>3445.97</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.74464</v>
+        <v>1.74147</v>
       </c>
       <c r="B58" t="n">
-        <v>2.82475</v>
+        <v>3.38822</v>
       </c>
       <c r="C58" t="n">
-        <v>2824.75</v>
+        <v>3388.22</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.77561</v>
+        <v>1.77234</v>
       </c>
       <c r="B59" t="n">
-        <v>2.825</v>
+        <v>3.33493</v>
       </c>
       <c r="C59" t="n">
-        <v>2825</v>
+        <v>3334.93</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.80657</v>
+        <v>1.80336</v>
       </c>
       <c r="B60" t="n">
-        <v>2.82512</v>
+        <v>3.28125</v>
       </c>
       <c r="C60" t="n">
-        <v>2825.12</v>
+        <v>3281.25</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.83754</v>
+        <v>1.83448</v>
       </c>
       <c r="B61" t="n">
-        <v>2.82511</v>
+        <v>3.22934</v>
       </c>
       <c r="C61" t="n">
-        <v>2825.11</v>
+        <v>3229.34</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.86851</v>
+        <v>1.86498</v>
       </c>
       <c r="B62" t="n">
-        <v>2.82496</v>
+        <v>3.18349</v>
       </c>
       <c r="C62" t="n">
-        <v>2824.96</v>
+        <v>3183.49</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.89948</v>
+        <v>1.89649</v>
       </c>
       <c r="B63" t="n">
-        <v>2.82467</v>
+        <v>3.13199</v>
       </c>
       <c r="C63" t="n">
-        <v>2824.67</v>
+        <v>3131.99</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.93045</v>
+        <v>1.92737</v>
       </c>
       <c r="B64" t="n">
-        <v>2.82425</v>
+        <v>3.08509</v>
       </c>
       <c r="C64" t="n">
-        <v>2824.25</v>
+        <v>3085.09</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.96141</v>
+        <v>1.95812</v>
       </c>
       <c r="B65" t="n">
-        <v>2.82368</v>
+        <v>3.0447</v>
       </c>
       <c r="C65" t="n">
-        <v>2823.68</v>
+        <v>3044.7</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.99219</v>
+        <v>1.98958</v>
       </c>
       <c r="B66" t="n">
-        <v>2.82295</v>
+        <v>2.99537</v>
       </c>
       <c r="C66" t="n">
-        <v>2822.95</v>
+        <v>2995.37</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.02275</v>
+        <v>2.02023</v>
       </c>
       <c r="B67" t="n">
-        <v>2.82203</v>
+        <v>2.96139</v>
       </c>
       <c r="C67" t="n">
-        <v>2822.03</v>
+        <v>2961.39</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.0533</v>
+        <v>2.05077</v>
       </c>
       <c r="B68" t="n">
-        <v>2.82095</v>
+        <v>2.91918</v>
       </c>
       <c r="C68" t="n">
-        <v>2820.95</v>
+        <v>2919.18</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.08385</v>
+        <v>2.08276</v>
       </c>
       <c r="B69" t="n">
-        <v>2.81973</v>
+        <v>2.884</v>
       </c>
       <c r="C69" t="n">
-        <v>2819.73</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.11441</v>
+        <v>2.11327</v>
       </c>
       <c r="B70" t="n">
-        <v>2.81837</v>
+        <v>2.84459</v>
       </c>
       <c r="C70" t="n">
-        <v>2818.37</v>
+        <v>2844.59</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.14496</v>
+        <v>2.1437</v>
       </c>
       <c r="B71" t="n">
-        <v>2.81685</v>
+        <v>2.81635</v>
       </c>
       <c r="C71" t="n">
-        <v>2816.85</v>
+        <v>2816.35</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.17552</v>
+        <v>2.1757</v>
       </c>
       <c r="B72" t="n">
-        <v>2.8152</v>
+        <v>2.7783</v>
       </c>
       <c r="C72" t="n">
-        <v>2815.2</v>
+        <v>2778.3</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.20683</v>
+        <v>2.20644</v>
       </c>
       <c r="B73" t="n">
-        <v>2.81336</v>
+        <v>2.74829</v>
       </c>
       <c r="C73" t="n">
-        <v>2813.36</v>
+        <v>2748.29</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.23841</v>
+        <v>2.23716</v>
       </c>
       <c r="B74" t="n">
-        <v>2.81132</v>
+        <v>2.71606</v>
       </c>
       <c r="C74" t="n">
-        <v>2811.32</v>
+        <v>2716.06</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.26998</v>
+        <v>2.26788</v>
       </c>
       <c r="B75" t="n">
-        <v>2.80915</v>
+        <v>2.69185</v>
       </c>
       <c r="C75" t="n">
-        <v>2809.15</v>
+        <v>2691.85</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.30155</v>
+        <v>2.29928</v>
       </c>
       <c r="B76" t="n">
-        <v>2.80679</v>
+        <v>2.6575</v>
       </c>
       <c r="C76" t="n">
-        <v>2806.79</v>
+        <v>2657.5</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.33313</v>
+        <v>2.33036</v>
       </c>
       <c r="B77" t="n">
-        <v>2.80423</v>
+        <v>2.63077</v>
       </c>
       <c r="C77" t="n">
-        <v>2804.23</v>
+        <v>2630.77</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.3647</v>
+        <v>2.36145</v>
       </c>
       <c r="B78" t="n">
-        <v>2.80154</v>
+        <v>2.60377</v>
       </c>
       <c r="C78" t="n">
-        <v>2801.54</v>
+        <v>2603.77</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.39627</v>
+        <v>2.39261</v>
       </c>
       <c r="B79" t="n">
-        <v>2.79866</v>
+        <v>2.58487</v>
       </c>
       <c r="C79" t="n">
-        <v>2798.66</v>
+        <v>2584.87</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.42723</v>
+        <v>2.42318</v>
       </c>
       <c r="B80" t="n">
-        <v>2.79559</v>
+        <v>2.58218</v>
       </c>
       <c r="C80" t="n">
-        <v>2795.59</v>
+        <v>2582.18</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.45795</v>
+        <v>2.45448</v>
       </c>
       <c r="B81" t="n">
-        <v>2.79234</v>
+        <v>2.57422</v>
       </c>
       <c r="C81" t="n">
-        <v>2792.34</v>
+        <v>2574.22</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.48867</v>
+        <v>2.48773</v>
       </c>
       <c r="B82" t="n">
-        <v>2.78892</v>
+        <v>2.56119</v>
       </c>
       <c r="C82" t="n">
-        <v>2788.92</v>
+        <v>2561.19</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.51939</v>
+        <v>2.52101</v>
       </c>
       <c r="B83" t="n">
-        <v>2.7853</v>
+        <v>2.55836</v>
       </c>
       <c r="C83" t="n">
-        <v>2785.3</v>
+        <v>2558.36</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.55011</v>
+        <v>2.55429</v>
       </c>
       <c r="B84" t="n">
-        <v>2.78144</v>
+        <v>2.54964</v>
       </c>
       <c r="C84" t="n">
-        <v>2781.44</v>
+        <v>2549.64</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.58083</v>
+        <v>2.58584</v>
       </c>
       <c r="B85" t="n">
-        <v>2.77725</v>
+        <v>2.53557</v>
       </c>
       <c r="C85" t="n">
-        <v>2777.25</v>
+        <v>2535.57</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.61155</v>
+        <v>2.61661</v>
       </c>
       <c r="B86" t="n">
-        <v>2.77272</v>
+        <v>2.52622</v>
       </c>
       <c r="C86" t="n">
-        <v>2772.72</v>
+        <v>2526.22</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.64227</v>
+        <v>2.64733</v>
       </c>
       <c r="B87" t="n">
-        <v>2.76795</v>
+        <v>2.51276</v>
       </c>
       <c r="C87" t="n">
-        <v>2767.95</v>
+        <v>2512.76</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.67299</v>
+        <v>2.67805</v>
       </c>
       <c r="B88" t="n">
-        <v>2.76298</v>
+        <v>2.50336</v>
       </c>
       <c r="C88" t="n">
-        <v>2762.98</v>
+        <v>2503.36</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.70371</v>
+        <v>2.70878</v>
       </c>
       <c r="B89" t="n">
-        <v>2.75781</v>
+        <v>2.49095</v>
       </c>
       <c r="C89" t="n">
-        <v>2757.81</v>
+        <v>2490.95</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.73443</v>
+        <v>2.73949</v>
       </c>
       <c r="B90" t="n">
-        <v>2.75238</v>
+        <v>2.48179</v>
       </c>
       <c r="C90" t="n">
-        <v>2752.38</v>
+        <v>2481.79</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.76515</v>
+        <v>2.77021</v>
       </c>
       <c r="B91" t="n">
-        <v>2.74669</v>
+        <v>2.46355</v>
       </c>
       <c r="C91" t="n">
-        <v>2746.69</v>
+        <v>2463.55</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.79587</v>
+        <v>2.79946</v>
       </c>
       <c r="B92" t="n">
-        <v>2.7407</v>
+        <v>2.44929</v>
       </c>
       <c r="C92" t="n">
-        <v>2740.7</v>
+        <v>2449.29</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.82659</v>
+        <v>2.82768</v>
       </c>
       <c r="B93" t="n">
-        <v>2.73444</v>
+        <v>2.44325</v>
       </c>
       <c r="C93" t="n">
-        <v>2734.44</v>
+        <v>2443.25</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.85731</v>
+        <v>2.85585</v>
       </c>
       <c r="B94" t="n">
-        <v>2.72785</v>
+        <v>2.4299</v>
       </c>
       <c r="C94" t="n">
-        <v>2727.85</v>
+        <v>2429.9</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.88803</v>
+        <v>2.88401</v>
       </c>
       <c r="B95" t="n">
-        <v>2.72089</v>
+        <v>2.4157</v>
       </c>
       <c r="C95" t="n">
-        <v>2720.89</v>
+        <v>2415.7</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.91875</v>
+        <v>2.91216</v>
       </c>
       <c r="B96" t="n">
-        <v>2.71356</v>
+        <v>2.40843</v>
       </c>
       <c r="C96" t="n">
-        <v>2713.56</v>
+        <v>2408.43</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.94947</v>
+        <v>2.94286</v>
       </c>
       <c r="B97" t="n">
-        <v>2.70581</v>
+        <v>2.39087</v>
       </c>
       <c r="C97" t="n">
-        <v>2705.81</v>
+        <v>2390.87</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.98019</v>
+        <v>2.97765</v>
       </c>
       <c r="B98" t="n">
-        <v>2.69762</v>
+        <v>2.37975</v>
       </c>
       <c r="C98" t="n">
-        <v>2697.62</v>
+        <v>2379.75</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>3.01017</v>
+        <v>3.01282</v>
       </c>
       <c r="B99" t="n">
-        <v>2.68899</v>
+        <v>2.3607</v>
       </c>
       <c r="C99" t="n">
-        <v>2688.99</v>
+        <v>2360.7</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>3.04004</v>
+        <v>3.04707</v>
       </c>
       <c r="B100" t="n">
-        <v>2.67985</v>
+        <v>2.35196</v>
       </c>
       <c r="C100" t="n">
-        <v>2679.85</v>
+        <v>2351.96</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3.07132</v>
+        <v>3.0794</v>
       </c>
       <c r="B101" t="n">
-        <v>2.6699</v>
+        <v>2.33233</v>
       </c>
       <c r="C101" t="n">
-        <v>2669.9</v>
+        <v>2332.33</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.10311</v>
+        <v>3.11144</v>
       </c>
       <c r="B102" t="n">
-        <v>2.65931</v>
+        <v>2.32246</v>
       </c>
       <c r="C102" t="n">
-        <v>2659.31</v>
+        <v>2322.46</v>
       </c>
     </row>
   </sheetData>
